--- a/Study Master.xlsx
+++ b/Study Master.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Java, Spring " sheetId="1" state="visible" r:id="rId2"/>
@@ -15,9 +15,10 @@
     <sheet name="Fresh" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Current Study" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Resume Content" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="For CitiUS" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Current Study'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Current Study'!$A$1:$D$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Current Study'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t xml:space="preserve">Sr No</t>
   </si>
@@ -161,6 +162,9 @@
     <t xml:space="preserve">ECS and Docker Hands-on</t>
   </si>
   <si>
+    <t xml:space="preserve">Half</t>
+  </si>
+  <si>
     <t xml:space="preserve">JavaScript Basics as per the article - https://medium.com/coderbyte/a-guide-to-becoming-a-full-stack-developer-in-2017-5c3c08a1600c</t>
   </si>
   <si>
@@ -197,15 +201,15 @@
     <t xml:space="preserve">Hadoop</t>
   </si>
   <si>
-    <t xml:space="preserve">Half</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scala</t>
   </si>
   <si>
     <t xml:space="preserve">Spark</t>
   </si>
   <si>
+    <t xml:space="preserve">difference between nosql db types – when use which db type ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Full Stack</t>
   </si>
   <si>
@@ -345,6 +349,21 @@
   </si>
   <si>
     <t xml:space="preserve">Learn the difference between queues and stacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete Hadoop and Spark tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadoop and spark configuration in AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS architect interview questions related to hadoop stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How hadoop stack used in dynamodb based applications – also check what all was stated in the resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Script Hands on</t>
   </si>
 </sst>
 </file>
@@ -718,7 +737,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -747,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -774,8 +793,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,8 +821,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -830,8 +849,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1016,13 +1035,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,7 +1067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1062,7 +1081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1090,7 +1109,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -1104,7 +1123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1140,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>35</v>
@@ -1148,7 +1167,7 @@
     </row>
     <row r="9" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
@@ -1162,21 +1181,21 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>3</v>
@@ -1188,9 +1207,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>3</v>
@@ -1204,21 +1223,21 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>3</v>
@@ -1230,9 +1249,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>3</v>
@@ -1244,9 +1263,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>3</v>
@@ -1258,9 +1277,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>3</v>
@@ -1272,9 +1291,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>3</v>
@@ -1286,9 +1305,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>3</v>
@@ -1302,19 +1321,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="5" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -1336,19 +1355,39 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D23">
+    <filterColumn colId="1">
+      <customFilters and="true">
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A14" r:id="rId1" display="Web storage to store sessions, cookies, and cached data in the browser."/>
   </hyperlinks>
@@ -1370,8 +1409,8 @@
   </sheetPr>
   <dimension ref="A3:D80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1385,318 +1424,318 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1727,4 +1766,71 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:B8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>